--- a/numpy.xlsx
+++ b/numpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Works\Pocket-Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Notes\Pocket-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C54FA-6923-4652-9B42-708AF1CD2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843F462-7CE5-4455-9ECB-3DAD65079568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21550" yWindow="610" windowWidth="21640" windowHeight="11320" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>linspace</t>
   </si>
@@ -50,6 +50,28 @@
   </si>
   <si>
     <t>randint</t>
+  </si>
+  <si>
+    <t>allclose</t>
+  </si>
+  <si>
+    <t>standard_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arange</t>
+  </si>
+  <si>
+    <t>trunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,34 +444,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6066B-8936-4045-9F5B-AA3AE64279E4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,12 +488,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/numpy.xlsx
+++ b/numpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Notes\Pocket-Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Works\Pocket-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843F462-7CE5-4455-9ECB-3DAD65079568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21058312-1239-42D0-8468-B58DD7CDFFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
+    <workbookView xWindow="-21590" yWindow="-70" windowWidth="21580" windowHeight="13660" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>linspace</t>
   </si>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>nanmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,35 +452,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6066B-8936-4045-9F5B-AA3AE64279E4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,29 +512,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/numpy.xlsx
+++ b/numpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Works\Pocket-Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Notes\Pocket-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21058312-1239-42D0-8468-B58DD7CDFFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E896E55-6E20-471E-9255-67DBD011FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21590" yWindow="-70" windowWidth="21580" windowHeight="13660" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
+    <workbookView xWindow="9360" yWindow="210" windowWidth="11750" windowHeight="10700" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>linspace</t>
   </si>
@@ -79,6 +79,37 @@
   </si>
   <si>
     <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutation</t>
+  </si>
+  <si>
+    <t>argmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meshgrid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,35 +483,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6066B-8936-4045-9F5B-AA3AE64279E4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,47 +535,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/numpy.xlsx
+++ b/numpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Notes\Pocket-Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Works\Pocket-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E896E55-6E20-471E-9255-67DBD011FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C8DA4-280B-43DC-915B-2A42A873AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="210" windowWidth="11750" windowHeight="10700" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
+    <workbookView xWindow="-21590" yWindow="-70" windowWidth="21580" windowHeight="13660" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>linspace</t>
   </si>
@@ -111,6 +111,9 @@
   <si>
     <t>meshgrid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multivariate_normal</t>
   </si>
 </sst>
 </file>
@@ -483,35 +486,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6066B-8936-4045-9F5B-AA3AE64279E4}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -551,76 +554,84 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/numpy.xlsx
+++ b/numpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Works\Pocket-Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Notes\Pocket-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C8DA4-280B-43DC-915B-2A42A873AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB2363-422C-4CE4-9B43-689C2E60C531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21590" yWindow="-70" windowWidth="21580" windowHeight="13660" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{99BBE80E-7DDD-4AFA-9F6F-E46355CDC4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>linspace</t>
   </si>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>multivariate_normal</t>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,35 +494,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6066B-8936-4045-9F5B-AA3AE64279E4}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -522,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -562,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,69 +578,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
